--- a/BASE_DE_DATOS - TAREAS/Cuaderno de Trabajo Base_Prediccion_Biomasa_Outliers.xlsx
+++ b/BASE_DE_DATOS - TAREAS/Cuaderno de Trabajo Base_Prediccion_Biomasa_Outliers.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raúl\OneDrive\Escritorio\VARIOS\DIGITAL-DEPORTIVO\curso-Excel-Python-IA\BASE_DE_DATOS - TAREAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C844CEE-6FB3-406C-B83D-6B9F0F99E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124E1EAF-9947-45F4-8918-40F65A9CD029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{026BF89D-7850-4723-BA14-E79EF1C921F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{026BF89D-7850-4723-BA14-E79EF1C921F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Datos OG con Outlier" sheetId="11" r:id="rId1"/>
     <sheet name="PreProcesamiento_Outlier" sheetId="1" r:id="rId2"/>
     <sheet name="Datos Limpios" sheetId="3" r:id="rId3"/>
-    <sheet name="Reporte 1Tabla de Busqueda" sheetId="8" r:id="rId4"/>
-    <sheet name="Estadistica Descriptiva" sheetId="4" r:id="rId5"/>
+    <sheet name="Estadistica Descriptiva" sheetId="4" r:id="rId4"/>
+    <sheet name="Reporte 1Tabla de Busqueda" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PreProcesamiento_Outlier!$A$11:$J$311</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Estadistica Descriptiva'!$A$1:$H$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Reporte 1Tabla de Busqueda'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Estadistica Descriptiva'!$A$1:$H$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Reporte 1Tabla de Busqueda'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2003,42 +2003,6 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2152,6 +2116,42 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3886,7 +3886,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{280813AE-8E7F-479D-8E35-1F83481181F4}" name="Tabla1" displayName="Tabla1" ref="A11:J311" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{280813AE-8E7F-479D-8E35-1F83481181F4}" name="Tabla1" displayName="Tabla1" ref="A11:J311" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A11:J311" xr:uid="{280813AE-8E7F-479D-8E35-1F83481181F4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3900,42 +3900,42 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E4C01DD0-9C86-4726-A9F2-E8942F7A4E29}" name="Fecha_mediciÃ³n" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{98731D43-BB4E-4F07-BEF9-80DB18F89344}" name="ID_parcela" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{DACAF287-0450-46B5-985C-5CC9FD40EDDD}" name="NDVI" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{41CF38DA-BE68-426C-BF2A-B896EF6A6415}" name="NDRE" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{6612BEAC-C826-499A-8F44-45FE705DC1B7}" name="PrecipitaciÃ³n" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F081EC27-7FC6-43A7-85FD-DE87401AE006}" name="Temperatura_media" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{3239BB0F-D0C2-45BE-9364-B311C9A1E8A7}" name="DÃ­as_sin_lluvia" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{7C12D338-6D51-4919-A811-6A6E4DFB0514}" name="Tipo_suelo" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{E538B0E8-8154-451E-B71F-45EA67F906EF}" name="Biomasa_real" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{9B3BB7A5-CA9D-4E7B-9E06-28475B3C8FA1}" name="CategorÃ­a_biomasa" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E4C01DD0-9C86-4726-A9F2-E8942F7A4E29}" name="Fecha_mediciÃ³n" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{98731D43-BB4E-4F07-BEF9-80DB18F89344}" name="ID_parcela" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{DACAF287-0450-46B5-985C-5CC9FD40EDDD}" name="NDVI" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{41CF38DA-BE68-426C-BF2A-B896EF6A6415}" name="NDRE" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{6612BEAC-C826-499A-8F44-45FE705DC1B7}" name="PrecipitaciÃ³n" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{F081EC27-7FC6-43A7-85FD-DE87401AE006}" name="Temperatura_media" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{3239BB0F-D0C2-45BE-9364-B311C9A1E8A7}" name="DÃ­as_sin_lluvia" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{7C12D338-6D51-4919-A811-6A6E4DFB0514}" name="Tipo_suelo" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{E538B0E8-8154-451E-B71F-45EA67F906EF}" name="Biomasa_real" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{9B3BB7A5-CA9D-4E7B-9E06-28475B3C8FA1}" name="CategorÃ­a_biomasa" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E1C9CAAD-E2B9-4C89-8D1E-8B43851A4C1F}" name="Tabla3" displayName="Tabla3" ref="A2:F5" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E1C9CAAD-E2B9-4C89-8D1E-8B43851A4C1F}" name="Tabla3" displayName="Tabla3" ref="A2:F5" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A2:F5" xr:uid="{E1C9CAAD-E2B9-4C89-8D1E-8B43851A4C1F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0969EFB2-7125-4569-B71C-43C93B00E773}" name="Valores"/>
-    <tableColumn id="2" xr3:uid="{BF76CE55-0B65-4AFC-A593-AD1E018D1CB2}" name="NDVI Outlier Manual" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{0A0DAD0A-2876-458C-8AE0-D009AE70A352}" name="NDRE Outlier Manual" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{99FD7B6D-05B8-482C-B350-7BB6CC393C41}" name="PRECIPITACION Outlier Manual" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{E6F48487-6F2C-446F-9BA3-13FC1C59BF72}" name="DIAS SIN LLUVIA Estadistica" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{F860A49A-9862-4E6A-A440-FF609F56B78B}" name="Biomasa_real Estadistica" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{BF76CE55-0B65-4AFC-A593-AD1E018D1CB2}" name="NDVI Outlier Manual" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{0A0DAD0A-2876-458C-8AE0-D009AE70A352}" name="NDRE Outlier Manual" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{99FD7B6D-05B8-482C-B350-7BB6CC393C41}" name="PRECIPITACION Outlier Manual" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{E6F48487-6F2C-446F-9BA3-13FC1C59BF72}" name="DIAS SIN LLUVIA Estadistica" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{F860A49A-9862-4E6A-A440-FF609F56B78B}" name="Biomasa_real Estadistica" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D2C47C06-2A30-4189-B72B-5D3CF04810F6}" name="Tabla5" displayName="Tabla5" ref="A8:B11" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D2C47C06-2A30-4189-B72B-5D3CF04810F6}" name="Tabla5" displayName="Tabla5" ref="A8:B11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A8:B11" xr:uid="{D2C47C06-2A30-4189-B72B-5D3CF04810F6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4FF0FFB1-234B-4459-92A1-3982AB1A6041}" name="Tipo_suelo" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{65D08503-C6A7-4A6D-9067-97A002D7A986}" name="Cantidad" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{4FF0FFB1-234B-4459-92A1-3982AB1A6041}" name="Tipo_suelo" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{65D08503-C6A7-4A6D-9067-97A002D7A986}" name="Cantidad" dataDxfId="11">
       <calculatedColumnFormula>COUNTIFS('Datos Limpios'!$G$2:$G$301,Tabla5[[#This Row],[Tipo_suelo]],'Datos Limpios'!$J$2:$J$301,"VALIDO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3948,7 +3948,7 @@
   <autoFilter ref="A13:B16" xr:uid="{F52C9937-1CC0-45D1-A52D-6F50CEDCB85C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0F027722-E476-4666-B86D-CE926E66ECFA}" name="Categoria de Biomasa"/>
-    <tableColumn id="2" xr3:uid="{145933F4-2513-4455-8D0F-DF56BD75D4A0}" name="Cantidad" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{145933F4-2513-4455-8D0F-DF56BD75D4A0}" name="Cantidad" dataDxfId="10">
       <calculatedColumnFormula>COUNTIFS('Datos Limpios'!$I$2:$I$301,Tabla6[[#This Row],[Categoria de Biomasa]],'Datos Limpios'!$J$2:$J$301,"VALIDO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3957,29 +3957,29 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BDACF1B7-ED56-4227-9C6A-0460E56D96D8}" name="Tabla7" displayName="Tabla7" ref="A19:H39" totalsRowShown="0" headerRowBorderDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BDACF1B7-ED56-4227-9C6A-0460E56D96D8}" name="Tabla7" displayName="Tabla7" ref="A19:H39" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A19:H39" xr:uid="{BDACF1B7-ED56-4227-9C6A-0460E56D96D8}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{241D9F70-703B-42D8-9128-310A203DF51B}" name="ID_parcela" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{281F2358-317F-42C9-A28B-940341CE555B}" name="Cantidad de Mediciones Arcilloso" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{241D9F70-703B-42D8-9128-310A203DF51B}" name="ID_parcela" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{281F2358-317F-42C9-A28B-940341CE555B}" name="Cantidad de Mediciones Arcilloso" dataDxfId="6">
       <calculatedColumnFormula>COUNTIFS('Datos Limpios'!$B$2:$B$301,Tabla7[[#This Row],[ID_parcela]],'Datos Limpios'!$G$2:$G$301,"Arcilloso",'Datos Limpios'!$J$2:$J$301,"VALIDO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9D377CD2-9EC0-42DC-9FC6-424A910A708A}" name="Cantidad de Mediciones Arenoso" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{9D377CD2-9EC0-42DC-9FC6-424A910A708A}" name="Cantidad de Mediciones Arenoso" dataDxfId="5">
       <calculatedColumnFormula>COUNTIFS('Datos Limpios'!$B$2:$B$301,Tabla7[[#This Row],[ID_parcela]],'Datos Limpios'!$G$2:$G$301,"Arenoso",'Datos Limpios'!$J$2:$J$301,"VALIDO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EB1197BE-8368-4EA8-A607-2AD5598BAC40}" name="Cantidad de Mediciones Franco" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{EB1197BE-8368-4EA8-A607-2AD5598BAC40}" name="Cantidad de Mediciones Franco" dataDxfId="4">
       <calculatedColumnFormula>COUNTIFS('Datos Limpios'!$B$2:$B$301,Tabla7[[#This Row],[ID_parcela]],'Datos Limpios'!$G$2:$G$301,"Franco",'Datos Limpios'!$J$2:$J$301,"VALIDO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{791CA29F-918E-472F-AC2E-D0CF91C97293}" name="Min Biomasa" dataDxfId="15">
+    <tableColumn id="5" xr3:uid="{791CA29F-918E-472F-AC2E-D0CF91C97293}" name="Min Biomasa" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.MINIFS('Datos Limpios'!$H$2:$H$301,'Datos Limpios'!$H$2:$H$301,"&lt;8000",'Datos Limpios'!$B$2:$B$301,Tabla7[[#This Row],[ID_parcela]],'Datos Limpios'!$J$2:$J$301,"VALIDO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F5C2A93F-629A-40B5-9303-C3F5D3EF625A}" name="Media Biomasa" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{F5C2A93F-629A-40B5-9303-C3F5D3EF625A}" name="Media Biomasa" dataDxfId="2">
       <calculatedColumnFormula>AVERAGEIFS('Datos Limpios'!$H$2:$H$301,'Datos Limpios'!$H$2:$H$301,"&lt;8000",'Datos Limpios'!$B$2:$B$301,Tabla7[[#This Row],[ID_parcela]],'Datos Limpios'!$J$2:$J$301,"VALIDO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EF53C669-B13C-46FD-BC38-E17137C0E0FC}" name="Max Biomasa" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{EF53C669-B13C-46FD-BC38-E17137C0E0FC}" name="Max Biomasa" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.MAXIFS('Datos Limpios'!$H$2:$H$301,'Datos Limpios'!$H$2:$H$301,"&gt;0",'Datos Limpios'!$B$2:$B$301,Tabla7[[#This Row],[ID_parcela]],'Datos Limpios'!$J$2:$J$301,"VALIDO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCA1855C-9CCB-4364-AB75-9EAE6095BBD0}" name="Minigrafico" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{BCA1855C-9CCB-4364-AB75-9EAE6095BBD0}" name="Minigrafico" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5897,7 +5897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FC9828-9459-4D57-8127-539B54D07BB7}">
   <dimension ref="A1:N311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -17067,45 +17067,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E38C1AF-5336-4188-B278-969912E79CED}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="C1:M1"/>
-  <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="12:13" ht="261.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L1" s="29" t="s">
-        <v>362</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FD2C86-6B84-458E-AC28-E53891AA0FAE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18089,4 +18058,35 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E38C1AF-5336-4188-B278-969912E79CED}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:M1"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:13" ht="261.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>